--- a/PROJETO SAÚDE.xlsx
+++ b/PROJETO SAÚDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humbe\OneDrive\Área de Trabalho\SENAC\Senac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A4AB77-66DE-414D-B489-B328FF2D3391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79140FF-DACF-474F-8214-82A0895EFFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F172CE5F-7756-491C-8995-BF1360C64AC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F172CE5F-7756-491C-8995-BF1360C64AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ADRIELY" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="38">
   <si>
     <t>ADRIELY</t>
   </si>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,7 +233,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -235,7 +243,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +740,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,29 +916,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AF8359-5FF6-4B0A-AE5D-B595ED0CCEE4}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1">
+        <v>67.05</v>
+      </c>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1">
+        <v>67.05</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1">
+        <v>64.95</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1">
+        <v>64.95</v>
+      </c>
+      <c r="U1" s="6">
+        <f>C1-M1</f>
+        <v>2.0999999999999943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -941,8 +984,38 @@
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45227</v>
       </c>
@@ -953,8 +1026,42 @@
         <v>96</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>45250</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="3">
+        <v>45265</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>87</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="P3" s="3">
+        <v>45280</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>87</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="U3" s="6">
+        <f>C3-M3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -963,8 +1070,36 @@
         <v>90</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>92</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>90</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="U4" s="6">
+        <f t="shared" ref="U4:U14" si="0">C4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -973,8 +1108,36 @@
         <v>92</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>91</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>91</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -985,8 +1148,42 @@
       <c r="D6" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1">
+        <v>30</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1">
+        <v>29</v>
+      </c>
+      <c r="S6" s="1">
+        <v>30</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -997,8 +1194,42 @@
       <c r="D7" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="1">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -1009,8 +1240,42 @@
       <c r="D8" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="1">
+        <v>60</v>
+      </c>
+      <c r="S8" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1021,8 +1286,42 @@
       <c r="D9" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>60</v>
+      </c>
+      <c r="N9" s="1">
+        <v>61</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1">
+        <v>60</v>
+      </c>
+      <c r="S9" s="1">
+        <v>61</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -1033,8 +1332,42 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="1">
+        <v>25</v>
+      </c>
+      <c r="S10" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1045,8 +1378,42 @@
       <c r="D11" s="1">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1">
+        <v>25</v>
+      </c>
+      <c r="N11" s="1">
+        <v>26</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="1">
+        <v>25</v>
+      </c>
+      <c r="S11" s="1">
+        <v>26</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -1057,8 +1424,42 @@
       <c r="D12" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1">
+        <v>36</v>
+      </c>
+      <c r="N12" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="1">
+        <v>36</v>
+      </c>
+      <c r="S12" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -1069,8 +1470,42 @@
       <c r="D13" s="1">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1">
+        <v>38</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1">
+        <v>37</v>
+      </c>
+      <c r="N13" s="1">
+        <v>38</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="1">
+        <v>37</v>
+      </c>
+      <c r="S13" s="1">
+        <v>38</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -1079,6 +1514,34 @@
         <v>104.5</v>
       </c>
       <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <v>105</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1">
+        <v>103</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="1">
+        <v>103</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="U14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1087,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E37EA3-7FC3-43DF-84EB-A7E330BCE5A3}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,9 +1564,17 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1114,8 +1585,33 @@
         <v>96.2</v>
       </c>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1">
+        <v>96.1</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1">
+        <v>94.35</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1">
+        <v>94.35</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="U1" s="6">
+        <f>C1-M1</f>
+        <v>1.8500000000000085</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1129,14 +1625,35 @@
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="K2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="P2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45227</v>
       </c>
@@ -1147,17 +1664,42 @@
         <v>111.5</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="F3" s="5">
-        <v>45229</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="8">
+        <v>45250</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="8">
+        <v>45265</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>107</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="P3" s="8">
+        <v>45280</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>107</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="U3" s="6">
+        <f>C3-M3</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1166,17 +1708,33 @@
         <v>106</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="5">
-        <v>45230</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>108</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="Q4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>108</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="U4" s="6">
+        <f t="shared" ref="U4:U14" si="0">C4-M4</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1186,10 +1744,34 @@
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>104.5</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>102</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="Q5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>102</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1201,10 +1783,38 @@
         <v>38.5</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1">
+        <v>35</v>
+      </c>
+      <c r="S6" s="1">
+        <v>36</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1216,10 +1826,38 @@
         <v>38</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="1">
+        <v>36</v>
+      </c>
+      <c r="S7" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -1231,10 +1869,40 @@
         <v>62</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>65</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1">
+        <v>62</v>
+      </c>
+      <c r="N8" s="1">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="1">
+        <v>62</v>
+      </c>
+      <c r="S8" s="1">
+        <v>63</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1246,10 +1914,40 @@
         <v>63</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>66</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>64</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -1261,10 +1959,40 @@
         <v>31</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>30</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1276,10 +2004,40 @@
         <v>31</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>31</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="1">
+        <v>29</v>
+      </c>
+      <c r="S11" s="1">
+        <v>31</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -1291,10 +2049,40 @@
         <v>40</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1">
+        <v>39</v>
+      </c>
+      <c r="N12" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="1">
+        <v>39</v>
+      </c>
+      <c r="S12" s="1">
+        <v>40</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -1306,10 +2094,40 @@
         <v>40</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1">
+        <v>40</v>
+      </c>
+      <c r="N13" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="1">
+        <v>40</v>
+      </c>
+      <c r="S13" s="1">
+        <v>41</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -1319,18 +2137,51 @@
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <v>111.5</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1">
+        <v>109</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="Q14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="1">
+        <v>109</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="U14" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1343,8 +2194,17 @@
       <c r="H18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="5">
+        <v>45229</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1357,8 +2217,17 @@
       <c r="H19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="5">
+        <v>45230</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +2241,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1383,7 +2252,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +2263,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1404,11 +2273,11 @@
       <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1418,11 +2287,11 @@
       <c r="G24" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1432,11 +2301,11 @@
       <c r="G25" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
